--- a/Material Teórico/ISW2020_LINK_CLASES_TEORICAS.xlsx
+++ b/Material Teórico/ISW2020_LINK_CLASES_TEORICAS.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mromero\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matias\Desktop\Repo\ISW_2020_4K3_GRUPO_08\Material Teórico\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C770E03-E9C9-4D7C-97CD-5E84FD39647C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{93658B5A-2681-4E39-B5B6-A9A83BF460DE}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>TEMA</t>
   </si>
@@ -126,12 +125,54 @@
   </si>
   <si>
     <t>21/8/2020</t>
+  </si>
+  <si>
+    <t>Framework para escalar Scrum</t>
+  </si>
+  <si>
+    <t>https://youtu.be/tx-tgq30vco</t>
+  </si>
+  <si>
+    <t>https://youtu.be/bqUNI8AFqKA</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>https://youtu.be/-6vAPyi28OU</t>
+  </si>
+  <si>
+    <t>https://youtu.be/rgRES2s5a_8</t>
+  </si>
+  <si>
+    <t>Testing Agile en contexto</t>
+  </si>
+  <si>
+    <t>https://youtu.be/hKoJBlhxuN8</t>
+  </si>
+  <si>
+    <t>PPQA</t>
+  </si>
+  <si>
+    <t>https://youtu.be/6GVTACucmRU</t>
+  </si>
+  <si>
+    <t>Lean y Kanban</t>
+  </si>
+  <si>
+    <t>https://youtu.be/opDHtLul3Hk</t>
+  </si>
+  <si>
+    <t>Métricas</t>
+  </si>
+  <si>
+    <t>https://youtu.be/zoKbW8MlbsQ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -176,7 +217,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -194,9 +235,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -508,23 +550,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6E1C78E-66A3-4E1C-996B-1AC0705CE0B6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" style="3" customWidth="1"/>
-    <col min="2" max="2" width="45.26953125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="20.6328125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="45.1796875" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="8.7265625" style="2"/>
+    <col min="2" max="2" width="45.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="45.140625" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="8.7109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -538,7 +580,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>27</v>
       </c>
@@ -552,7 +594,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C4" s="3">
         <v>2</v>
       </c>
@@ -560,7 +602,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C5" s="3">
         <v>3</v>
       </c>
@@ -568,10 +610,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>26</v>
       </c>
@@ -585,7 +627,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C8" s="3">
         <v>2</v>
       </c>
@@ -593,7 +635,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>44020</v>
       </c>
@@ -607,7 +649,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C11" s="3">
         <v>2</v>
       </c>
@@ -615,7 +657,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C12" s="3">
         <v>3</v>
       </c>
@@ -623,7 +665,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>28</v>
       </c>
@@ -637,7 +679,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C15" s="3">
         <v>2</v>
       </c>
@@ -645,7 +687,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>30</v>
       </c>
@@ -659,7 +701,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C18" s="3">
         <v>2</v>
       </c>
@@ -667,7 +709,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C19" s="3">
         <v>3</v>
       </c>
@@ -675,7 +717,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>29</v>
       </c>
@@ -689,7 +731,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C22" s="3">
         <v>2</v>
       </c>
@@ -697,7 +739,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C23" s="3">
         <v>3</v>
       </c>
@@ -705,64 +747,156 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25" s="4"/>
-      <c r="D25" s="5"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D26" s="5"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <v>44078</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" s="3">
+        <v>1</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C26" s="3">
+        <v>2</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D27" s="5"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <v>44092</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" s="3">
+        <v>1</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
-      <c r="D29" s="5"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C29" s="3">
+        <v>2</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D30" s="5"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D31" s="5"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
+        <v>44099</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31" s="3">
+        <v>1</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D32" s="5"/>
     </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
+        <v>44106</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C33" s="3">
+        <v>1</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D34" s="5"/>
     </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D35" s="5"/>
-    </row>
-    <row r="36" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
+        <v>44113</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C35" s="3">
+        <v>1</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D36" s="5"/>
     </row>
-    <row r="38" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="4">
+        <v>44127</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C37" s="3">
+        <v>1</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D38" s="5"/>
     </row>
-    <row r="39" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D39" s="5"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" xr:uid="{2352FC71-9D05-44B9-B27E-49F6D08E111A}"/>
-    <hyperlink ref="D4" r:id="rId2" xr:uid="{6A4F72F7-6C30-4828-827E-2836E4A8FBFB}"/>
-    <hyperlink ref="D10" r:id="rId3" xr:uid="{02AACA3E-E7F2-4AB7-8C38-6FD28D060CAE}"/>
-    <hyperlink ref="D12" r:id="rId4" xr:uid="{25863A39-062D-4CB1-A2BA-8A4C542EAC17}"/>
-    <hyperlink ref="D5" r:id="rId5" xr:uid="{D0926283-4A4D-4CB5-BF1D-F6BA3E322E1C}"/>
-    <hyperlink ref="D7" r:id="rId6" xr:uid="{8C0A486C-48FF-4C65-A38F-291EFCD4551F}"/>
-    <hyperlink ref="D8" r:id="rId7" xr:uid="{ECA6C044-D726-4FD4-ABBB-ACA78515EFBC}"/>
-    <hyperlink ref="D11" r:id="rId8" xr:uid="{FD01427E-058B-4D8B-8D50-6707C5A71877}"/>
-    <hyperlink ref="D14" r:id="rId9" xr:uid="{5F8AB93D-B92A-4FEA-B1E1-540714DD98A2}"/>
-    <hyperlink ref="D15" r:id="rId10" xr:uid="{6C6E6896-1728-41B8-8E14-196B54FC74FC}"/>
-    <hyperlink ref="D17" r:id="rId11" xr:uid="{4A02D0F5-058A-4FEC-9A4F-5D3912E4AE8F}"/>
-    <hyperlink ref="D18" r:id="rId12" xr:uid="{22489C61-30FE-4A2C-9A4B-51475B1C359C}"/>
-    <hyperlink ref="D19" r:id="rId13" xr:uid="{D31A2BCD-AE0D-4465-99B0-09A5FB181059}"/>
-    <hyperlink ref="D21" r:id="rId14" xr:uid="{04E1FC50-BF53-460B-91F7-48EBF869216B}"/>
-    <hyperlink ref="D22" r:id="rId15" xr:uid="{A3B8EC57-765B-46B2-A4F1-2882A576731A}"/>
-    <hyperlink ref="D23" r:id="rId16" xr:uid="{BC27CED2-2771-48AA-B517-24386073ADEF}"/>
+    <hyperlink ref="D3" r:id="rId1"/>
+    <hyperlink ref="D4" r:id="rId2"/>
+    <hyperlink ref="D10" r:id="rId3"/>
+    <hyperlink ref="D12" r:id="rId4"/>
+    <hyperlink ref="D5" r:id="rId5"/>
+    <hyperlink ref="D7" r:id="rId6"/>
+    <hyperlink ref="D8" r:id="rId7"/>
+    <hyperlink ref="D11" r:id="rId8"/>
+    <hyperlink ref="D14" r:id="rId9"/>
+    <hyperlink ref="D15" r:id="rId10"/>
+    <hyperlink ref="D17" r:id="rId11"/>
+    <hyperlink ref="D18" r:id="rId12"/>
+    <hyperlink ref="D19" r:id="rId13"/>
+    <hyperlink ref="D21" r:id="rId14"/>
+    <hyperlink ref="D22" r:id="rId15"/>
+    <hyperlink ref="D23" r:id="rId16"/>
+    <hyperlink ref="D25" r:id="rId17"/>
+    <hyperlink ref="D26" r:id="rId18"/>
+    <hyperlink ref="D28" r:id="rId19"/>
+    <hyperlink ref="D29" r:id="rId20"/>
+    <hyperlink ref="D31" r:id="rId21"/>
+    <hyperlink ref="D33" r:id="rId22"/>
+    <hyperlink ref="D35" r:id="rId23"/>
+    <hyperlink ref="D37" r:id="rId24"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId17"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId25"/>
 </worksheet>
 </file>